--- a/Excel/food.xlsx
+++ b/Excel/food.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\BD6\projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugo/Desktop/school-uni-bd6/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF11E123-2BBB-4A3B-B7B1-75E39FD49D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E269C2-5D47-A44E-8764-6BCEA8BF3DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{A6D017A1-2E43-45DA-AD70-04082A4D30C6}"/>
+    <workbookView xWindow="12440" yWindow="1860" windowWidth="33840" windowHeight="12560" xr2:uid="{A6D017A1-2E43-45DA-AD70-04082A4D30C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -395,15 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C69ADE-2BD3-467D-B922-879D681A2FA0}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,6 +412,83 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>730</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>730</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
